--- a/Database/Data_20150722/Class2.xlsx
+++ b/Database/Data_20150722/Class2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
   <si>
     <t>Class</t>
   </si>
@@ -113,6 +113,36 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>EC1003</t>
+  </si>
+  <si>
+    <t>IA1003</t>
+  </si>
+  <si>
+    <t>IA1002</t>
+  </si>
+  <si>
+    <t>EC1001</t>
+  </si>
+  <si>
+    <t>IA0902</t>
+  </si>
+  <si>
+    <t>IA0903</t>
+  </si>
+  <si>
+    <t>IA10901</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>IA1</t>
   </si>
 </sst>
 </file>
@@ -167,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -184,12 +214,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -217,6 +256,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,8 +763,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
+      <c r="A8" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -731,24 +773,24 @@
         <v>29</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -757,24 +799,24 @@
         <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
+      <c r="A10" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -792,15 +834,15 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
+      <c r="A11" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -815,18 +857,18 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -841,166 +883,166 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
         <v>32</v>
       </c>
-      <c r="H13">
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="I13">
+      <c r="I16">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18">
         <v>7</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16">
-        <v>9</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18">
-        <v>11</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -1008,7 +1050,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1022,19 +1064,19 @@
       <c r="F19">
         <v>9</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>31</v>
+      <c r="G19" t="s">
+        <v>30</v>
       </c>
       <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
         <v>4</v>
-      </c>
-      <c r="I19">
-        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -1048,39 +1090,221 @@
       <c r="F20">
         <v>9</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>31</v>
+      <c r="G20" t="s">
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21">
-        <v>9</v>
-      </c>
-      <c r="G21" s="10" t="s">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H21">
+      <c r="H27">
         <v>6</v>
       </c>
-      <c r="I21">
+      <c r="I27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>5</v>
       </c>
     </row>

--- a/Database/Data_20150722/Class2.xlsx
+++ b/Database/Data_20150722/Class2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="42">
   <si>
     <t>Class</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>IA</t>
-  </si>
-  <si>
-    <t>IA1</t>
   </si>
 </sst>
 </file>
@@ -567,7 +564,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1290,7 @@
         <v>29</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28">
         <v>9</v>
